--- a/bokslut2024/resultat-rapport-bokio.xlsx
+++ b/bokslut2024/resultat-rapport-bokio.xlsx
@@ -1118,7 +1118,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C29" s="1">
-        <x:v>6926.24</x:v>
+        <x:v>5500.24</x:v>
       </x:c>
       <x:c r="D29" s="1">
         <x:v>24233.22</x:v>
@@ -1192,7 +1192,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C33" s="2">
-        <x:v>0</x:v>
+        <x:v>1426</x:v>
       </x:c>
       <x:c r="D33" s="2">
         <x:v>0</x:v>
@@ -1212,7 +1212,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C34" s="4">
-        <x:v>0</x:v>
+        <x:v>1426</x:v>
       </x:c>
       <x:c r="D34" s="4">
         <x:v>0</x:v>
